--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366F8960-3E77-DC4E-A0A9-B82A0F02E3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A0374E-7056-0A41-9CEE-EC1082137530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -97,25 +97,25 @@
     <t>/assignment/01-problem-set</t>
   </si>
   <si>
-    <t>The Idea of Your Computer</t>
-  </si>
-  <si>
-    <t>The Idea of a Shell</t>
-  </si>
-  <si>
-    <t>The Idea of Plain Text</t>
-  </si>
-  <si>
-    <t>The Idea of Version Control</t>
-  </si>
-  <si>
-    <t>The Idea of a Build System</t>
-  </si>
-  <si>
-    <t>The Idea of the Network</t>
-  </si>
-  <si>
     <t>Weekly Topics</t>
+  </si>
+  <si>
+    <t>The Idea of a Shell: The terminal; finding, listing, and inspecting things</t>
+  </si>
+  <si>
+    <t>The Idea of Your Computer: The file system; naming things; the Unix way of thinking</t>
+  </si>
+  <si>
+    <t>The Idea of Plain Text: Text editors; slicing and dicing; regular expressions</t>
+  </si>
+  <si>
+    <t>The Idea of Version Control: Git and GitHub; knowing what you did</t>
+  </si>
+  <si>
+    <t>The Idea of a Build System: Make, targets, and Quarto; IDEs</t>
+  </si>
+  <si>
+    <t>The Idea of the Network: Servers, websites, and APIs</t>
   </si>
 </sst>
 </file>
@@ -184,9 +184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,7 +224,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -330,7 +330,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,7 +472,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -483,14 +483,15 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
@@ -533,7 +534,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -541,14 +542,10 @@
       <c r="C2" s="2">
         <v>45167</v>
       </c>
-      <c r="D2" s="2">
-        <v>45167</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45167</v>
-      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -562,7 +559,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -570,19 +567,15 @@
       <c r="C3" s="2">
         <v>45174</v>
       </c>
-      <c r="D3" s="2">
-        <v>45174</v>
-      </c>
-      <c r="E3" s="2">
-        <v>45174</v>
-      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -590,19 +583,15 @@
       <c r="C4" s="2">
         <v>45181</v>
       </c>
-      <c r="D4" s="2">
-        <v>45181</v>
-      </c>
-      <c r="E4" s="2">
-        <v>45181</v>
-      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -610,19 +599,15 @@
       <c r="C5" s="2">
         <v>45188</v>
       </c>
-      <c r="D5" s="2">
-        <v>45188</v>
-      </c>
-      <c r="E5" s="2">
-        <v>45188</v>
-      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -630,19 +615,15 @@
       <c r="C6" s="2">
         <v>45195</v>
       </c>
-      <c r="D6" s="2">
-        <v>45195</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45195</v>
-      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -650,14 +631,10 @@
       <c r="C7" s="2">
         <v>45202</v>
       </c>
-      <c r="D7" s="2">
-        <v>45202</v>
-      </c>
-      <c r="E7" s="2">
-        <v>45202</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A0374E-7056-0A41-9CEE-EC1082137530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790CAA2C-0C46-5F4D-A7FF-70F190D88B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>group</t>
   </si>
@@ -94,18 +94,9 @@
     <t>/example/01-example</t>
   </si>
   <si>
-    <t>/assignment/01-problem-set</t>
-  </si>
-  <si>
     <t>Weekly Topics</t>
   </si>
   <si>
-    <t>The Idea of a Shell: The terminal; finding, listing, and inspecting things</t>
-  </si>
-  <si>
-    <t>The Idea of Your Computer: The file system; naming things; the Unix way of thinking</t>
-  </si>
-  <si>
     <t>The Idea of Plain Text: Text editors; slicing and dicing; regular expressions</t>
   </si>
   <si>
@@ -116,6 +107,18 @@
   </si>
   <si>
     <t>The Idea of the Network: Servers, websites, and APIs</t>
+  </si>
+  <si>
+    <t>The Idea of Your Computer: The file system; the terminal; the Unix way of thinking</t>
+  </si>
+  <si>
+    <t>The Idea of a Shell: Finding, listing, and inspecting things</t>
+  </si>
+  <si>
+    <t>/content/02-content</t>
+  </si>
+  <si>
+    <t>/example/02-example</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -491,7 +494,7 @@
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
@@ -534,7 +537,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -545,7 +548,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -553,13 +556,10 @@
       <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -570,12 +570,18 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -586,12 +592,12 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
@@ -602,12 +608,12 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>14</v>
@@ -618,12 +624,12 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -634,7 +640,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H7" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790CAA2C-0C46-5F4D-A7FF-70F190D88B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C360639-252A-8949-87B3-2FD1CCD0C77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>group</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>/example/02-example</t>
+  </si>
+  <si>
+    <t>/assignment/02-problem-set</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,6 +581,9 @@
       <c r="I3" t="s">
         <v>27</v>
       </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10903"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C360639-252A-8949-87B3-2FD1CCD0C77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEE47D3-FB3D-8848-BDAC-ABE8595C4AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>group</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Weekly Topics</t>
   </si>
   <si>
-    <t>The Idea of Plain Text: Text editors; slicing and dicing; regular expressions</t>
-  </si>
-  <si>
     <t>The Idea of Version Control: Git and GitHub; knowing what you did</t>
   </si>
   <si>
@@ -122,6 +119,15 @@
   </si>
   <si>
     <t>/assignment/02-problem-set</t>
+  </si>
+  <si>
+    <t>/content/03-content</t>
+  </si>
+  <si>
+    <t>/example/03-example</t>
+  </si>
+  <si>
+    <t>The Idea of Text Editing: Text editors; slicing and dicing; regular expressions</t>
   </si>
 </sst>
 </file>
@@ -489,7 +495,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,7 +557,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -573,16 +579,16 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -598,7 +604,13 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -614,7 +626,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -630,7 +642,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -646,7 +658,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H7" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAEE47D3-FB3D-8848-BDAC-ABE8595C4AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6A4FC9-6F0A-B045-BD6E-E5E80E33954D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -97,21 +97,6 @@
     <t>Weekly Topics</t>
   </si>
   <si>
-    <t>The Idea of Version Control: Git and GitHub; knowing what you did</t>
-  </si>
-  <si>
-    <t>The Idea of a Build System: Make, targets, and Quarto; IDEs</t>
-  </si>
-  <si>
-    <t>The Idea of the Network: Servers, websites, and APIs</t>
-  </si>
-  <si>
-    <t>The Idea of Your Computer: The file system; the terminal; the Unix way of thinking</t>
-  </si>
-  <si>
-    <t>The Idea of a Shell: Finding, listing, and inspecting things</t>
-  </si>
-  <si>
     <t>/content/02-content</t>
   </si>
   <si>
@@ -127,7 +112,22 @@
     <t>/example/03-example</t>
   </si>
   <si>
-    <t>The Idea of Text Editing: Text editors; slicing and dicing; regular expressions</t>
+    <t>Your Computer: The file system; the terminal; the Unix way of thinking</t>
+  </si>
+  <si>
+    <t>The Shell: Finding, listing, and inspecting things</t>
+  </si>
+  <si>
+    <t>Editing Text: Text editors; slicing and dicing; regular expressions</t>
+  </si>
+  <si>
+    <t>Version Control: Git and GitHub; knowing what you did</t>
+  </si>
+  <si>
+    <t>Build Systems: Make, targets, and Quarto; IDEs</t>
+  </si>
+  <si>
+    <t>The Network: Servers, websites, and APIs</t>
   </si>
 </sst>
 </file>
@@ -495,7 +495,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -557,7 +557,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
         <v>17</v>
@@ -579,16 +579,16 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -604,13 +604,13 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -626,7 +626,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -642,7 +642,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -658,7 +658,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10903"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6A4FC9-6F0A-B045-BD6E-E5E80E33954D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3458A78E-8BD1-5E47-B2B0-F222A21DCEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t>group</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>The Network: Servers, websites, and APIs</t>
+  </si>
+  <si>
+    <t>/content/04-content</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -628,6 +631,9 @@
       <c r="F5" t="s">
         <v>28</v>
       </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3458A78E-8BD1-5E47-B2B0-F222A21DCEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856413DD-4371-F542-92B3-695E1427EE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>group</t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>/content/04-content</t>
+  </si>
+  <si>
+    <t>/example/04-example</t>
   </si>
 </sst>
 </file>
@@ -498,7 +501,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,6 +637,9 @@
       <c r="H5" t="s">
         <v>31</v>
       </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856413DD-4371-F542-92B3-695E1427EE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E2B5F7-6CC0-9749-A10D-5E6AE67278CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>group</t>
   </si>
@@ -134,6 +134,12 @@
   </si>
   <si>
     <t>/example/04-example</t>
+  </si>
+  <si>
+    <t>/content/05-content</t>
+  </si>
+  <si>
+    <t>/example/05-example</t>
   </si>
 </sst>
 </file>
@@ -501,7 +507,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,6 +662,12 @@
       <c r="F6" t="s">
         <v>29</v>
       </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E2B5F7-6CC0-9749-A10D-5E6AE67278CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56687677-1848-3A4D-93BE-190E1F4B3D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>group</t>
   </si>
@@ -67,24 +67,6 @@
     <t>note</t>
   </si>
   <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
     <t>day2</t>
   </si>
   <si>
@@ -124,9 +106,6 @@
     <t>Version Control: Git and GitHub; knowing what you did</t>
   </si>
   <si>
-    <t>Build Systems: Make, targets, and Quarto; IDEs</t>
-  </si>
-  <si>
     <t>The Network: Servers, websites, and APIs</t>
   </si>
   <si>
@@ -140,6 +119,69 @@
   </si>
   <si>
     <t>/example/05-example</t>
+  </si>
+  <si>
+    <t>The Whole Game: Doing data analysis properly</t>
+  </si>
+  <si>
+    <t>R, RStudio, and Quarto</t>
+  </si>
+  <si>
+    <t>How R thinks</t>
+  </si>
+  <si>
+    <t>The elements of data analysis: tabulation, grouping, summaries</t>
+  </si>
+  <si>
+    <t>The elements of data visualization: graphs and the grammar of graphics</t>
+  </si>
+  <si>
+    <t>Getting your data in and out of R</t>
+  </si>
+  <si>
+    <t>The elements of programming: writing, documenting, and testing your code</t>
+  </si>
+  <si>
+    <t>Reproducibility and build systems: make, targets, renv</t>
+  </si>
+  <si>
+    <t>Wk 1</t>
+  </si>
+  <si>
+    <t>Wk 2</t>
+  </si>
+  <si>
+    <t>Wk 3</t>
+  </si>
+  <si>
+    <t>Wk 4</t>
+  </si>
+  <si>
+    <t>Wk 5</t>
+  </si>
+  <si>
+    <t>Wk 6</t>
+  </si>
+  <si>
+    <t>Wk 7</t>
+  </si>
+  <si>
+    <t>Wk 8</t>
+  </si>
+  <si>
+    <t>Wk 9</t>
+  </si>
+  <si>
+    <t>Wk 10</t>
+  </si>
+  <si>
+    <t>Wk 11</t>
+  </si>
+  <si>
+    <t>Wk 12</t>
+  </si>
+  <si>
+    <t>Wk 13</t>
   </si>
 </sst>
 </file>
@@ -149,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -160,6 +202,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -507,7 +555,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,7 +580,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -558,10 +606,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2">
         <v>45167</v>
@@ -569,21 +617,21 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C3" s="2">
         <v>45174</v>
@@ -591,24 +639,24 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>45181</v>
@@ -616,21 +664,21 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2">
         <v>45188</v>
@@ -638,21 +686,21 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2">
         <v>45195</v>
@@ -660,21 +708,21 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C7" s="2">
         <v>45202</v>
@@ -682,48 +730,125 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="2"/>
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2">
+        <v>45209</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C9" s="2"/>
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="2">
+        <v>45216</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C10" s="2"/>
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45223</v>
+      </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C11" s="2"/>
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="2">
+        <v>45230</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C12" s="2"/>
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45237</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C13" s="2"/>
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2">
+        <v>45244</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
+      <c r="F13" t="s">
+        <v>34</v>
+      </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C14" s="2"/>
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45251</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -752,6 +877,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C18">
     <sortCondition ref="C2:C18"/>
   </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56687677-1848-3A4D-93BE-190E1F4B3D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C407CFB0-D21C-6941-8A8A-1F1CC03E5D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t>Version Control: Git and GitHub; knowing what you did</t>
   </si>
   <si>
-    <t>The Network: Servers, websites, and APIs</t>
-  </si>
-  <si>
     <t>/content/04-content</t>
   </si>
   <si>
@@ -121,67 +118,70 @@
     <t>/example/05-example</t>
   </si>
   <si>
-    <t>The Whole Game: Doing data analysis properly</t>
-  </si>
-  <si>
     <t>R, RStudio, and Quarto</t>
   </si>
   <si>
     <t>How R thinks</t>
   </si>
   <si>
-    <t>The elements of data analysis: tabulation, grouping, summaries</t>
-  </si>
-  <si>
-    <t>The elements of data visualization: graphs and the grammar of graphics</t>
-  </si>
-  <si>
     <t>Getting your data in and out of R</t>
   </si>
   <si>
-    <t>The elements of programming: writing, documenting, and testing your code</t>
-  </si>
-  <si>
     <t>Reproducibility and build systems: make, targets, renv</t>
   </si>
   <si>
-    <t>Wk 1</t>
-  </si>
-  <si>
-    <t>Wk 2</t>
-  </si>
-  <si>
-    <t>Wk 3</t>
-  </si>
-  <si>
-    <t>Wk 4</t>
-  </si>
-  <si>
-    <t>Wk 5</t>
-  </si>
-  <si>
-    <t>Wk 6</t>
-  </si>
-  <si>
-    <t>Wk 7</t>
-  </si>
-  <si>
-    <t>Wk 8</t>
-  </si>
-  <si>
-    <t>Wk 9</t>
-  </si>
-  <si>
-    <t>Wk 10</t>
-  </si>
-  <si>
-    <t>Wk 11</t>
-  </si>
-  <si>
-    <t>Wk 12</t>
-  </si>
-  <si>
-    <t>Wk 13</t>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Overview: Doing data analysis properly</t>
+  </si>
+  <si>
+    <t>Understanding the Network: Servers, websites, and APIs</t>
+  </si>
+  <si>
+    <t>Tabulation, grouping, summaries</t>
+  </si>
+  <si>
+    <t>Graphs and the grammar of graphics</t>
+  </si>
+  <si>
+    <t>Programming: writing, documenting, and testing your code</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,7 +609,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>45167</v>
@@ -617,7 +617,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -631,7 +631,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>45174</v>
@@ -639,7 +639,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -656,7 +656,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C4" s="2">
         <v>45181</v>
@@ -678,7 +678,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C5" s="2">
         <v>45188</v>
@@ -689,10 +689,10 @@
         <v>20</v>
       </c>
       <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
         <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -700,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2">
         <v>45195</v>
@@ -711,10 +711,10 @@
         <v>21</v>
       </c>
       <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
         <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -722,7 +722,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2">
         <v>45202</v>
@@ -739,7 +739,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2">
         <v>45209</v>
@@ -747,7 +747,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -755,7 +755,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2">
         <v>45216</v>
@@ -763,7 +763,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -772,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2">
         <v>45223</v>
@@ -780,7 +780,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -789,7 +789,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2">
         <v>45230</v>
@@ -797,7 +797,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -806,7 +806,7 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2">
         <v>45237</v>
@@ -814,7 +814,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -822,7 +822,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2">
         <v>45244</v>
@@ -830,7 +830,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -839,7 +839,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2">
         <v>45251</v>
@@ -847,7 +847,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H14" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C407CFB0-D21C-6941-8A8A-1F1CC03E5D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E54BCD-3FCB-DC4D-B4C8-3277CD81037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>group</t>
   </si>
@@ -70,66 +70,9 @@
     <t>day2</t>
   </si>
   <si>
-    <t>/content/01-content</t>
-  </si>
-  <si>
-    <t>/example/01-example</t>
-  </si>
-  <si>
     <t>Weekly Topics</t>
   </si>
   <si>
-    <t>/content/02-content</t>
-  </si>
-  <si>
-    <t>/example/02-example</t>
-  </si>
-  <si>
-    <t>/assignment/02-problem-set</t>
-  </si>
-  <si>
-    <t>/content/03-content</t>
-  </si>
-  <si>
-    <t>/example/03-example</t>
-  </si>
-  <si>
-    <t>Your Computer: The file system; the terminal; the Unix way of thinking</t>
-  </si>
-  <si>
-    <t>The Shell: Finding, listing, and inspecting things</t>
-  </si>
-  <si>
-    <t>Editing Text: Text editors; slicing and dicing; regular expressions</t>
-  </si>
-  <si>
-    <t>Version Control: Git and GitHub; knowing what you did</t>
-  </si>
-  <si>
-    <t>/content/04-content</t>
-  </si>
-  <si>
-    <t>/example/04-example</t>
-  </si>
-  <si>
-    <t>/content/05-content</t>
-  </si>
-  <si>
-    <t>/example/05-example</t>
-  </si>
-  <si>
-    <t>R, RStudio, and Quarto</t>
-  </si>
-  <si>
-    <t>How R thinks</t>
-  </si>
-  <si>
-    <t>Getting your data in and out of R</t>
-  </si>
-  <si>
-    <t>Reproducibility and build systems: make, targets, renv</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -169,19 +112,49 @@
     <t>Week 13</t>
   </si>
   <si>
-    <t>Overview: Doing data analysis properly</t>
-  </si>
-  <si>
-    <t>Understanding the Network: Servers, websites, and APIs</t>
-  </si>
-  <si>
     <t>Tabulation, grouping, summaries</t>
   </si>
   <si>
-    <t>Graphs and the grammar of graphics</t>
-  </si>
-  <si>
-    <t>Programming: writing, documenting, and testing your code</t>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>No class (Fall break)</t>
+  </si>
+  <si>
+    <t>No class (Thanksgiving)</t>
+  </si>
+  <si>
+    <t>Doing data analysis properly</t>
+  </si>
+  <si>
+    <t>Your computer: The file system; the terminal; the Unix way of thinking</t>
+  </si>
+  <si>
+    <t>The shell: Finding, listing, and inspecting things</t>
+  </si>
+  <si>
+    <t>Editing text: Text editors; slicing and dicing; regular expressions</t>
+  </si>
+  <si>
+    <t>Version Control: Knowing what you did; git; GitHub</t>
+  </si>
+  <si>
+    <t>Your data workbench: R, RStudio, and Quarto</t>
+  </si>
+  <si>
+    <t>Your data workbench, cont'd: How R thinks</t>
+  </si>
+  <si>
+    <t>Looking at your data: Graphs, ggplot, and the grammar of graphics</t>
+  </si>
+  <si>
+    <t>Tidy data; Getting your data in and out of R</t>
+  </si>
+  <si>
+    <t>Talking to servers: Networks and APIs</t>
+  </si>
+  <si>
+    <t>Iterating on data: functional programming patterns</t>
   </si>
 </sst>
 </file>
@@ -555,7 +528,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -563,7 +536,7 @@
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="71.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="62" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
@@ -606,255 +579,233 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
-        <v>45167</v>
+        <v>45531</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
       <c r="C3" s="2">
-        <v>45174</v>
+        <v>45538</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>45181</v>
+        <v>45545</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
-        <v>45188</v>
+        <v>45552</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2">
-        <v>45195</v>
+        <v>45559</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2">
-        <v>45202</v>
+        <v>45566</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
-        <v>45209</v>
+        <v>45573</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
-        <v>45216</v>
+        <v>45580</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
-        <v>45223</v>
+        <v>45587</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C11" s="2">
-        <v>45230</v>
+        <v>45594</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2">
-        <v>45237</v>
+        <v>45601</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2">
-        <v>45244</v>
+        <v>45608</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2">
-        <v>45251</v>
+        <v>45615</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="2"/>
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2">
+        <v>45622</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
+      <c r="F15" t="s">
+        <v>28</v>
+      </c>
       <c r="H15" s="3"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E54BCD-3FCB-DC4D-B4C8-3277CD81037C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81E58CA-6CBA-334C-B064-29B761A2A8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="1540" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
+    <workbookView xWindow="11720" yWindow="11280" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -112,9 +111,6 @@
     <t>Week 13</t>
   </si>
   <si>
-    <t>Tabulation, grouping, summaries</t>
-  </si>
-  <si>
     <t>Week 14</t>
   </si>
   <si>
@@ -136,25 +132,28 @@
     <t>Editing text: Text editors; slicing and dicing; regular expressions</t>
   </si>
   <si>
-    <t>Version Control: Knowing what you did; git; GitHub</t>
-  </si>
-  <si>
-    <t>Your data workbench: R, RStudio, and Quarto</t>
-  </si>
-  <si>
-    <t>Your data workbench, cont'd: How R thinks</t>
-  </si>
-  <si>
-    <t>Looking at your data: Graphs, ggplot, and the grammar of graphics</t>
-  </si>
-  <si>
-    <t>Tidy data; Getting your data in and out of R</t>
-  </si>
-  <si>
-    <t>Talking to servers: Networks and APIs</t>
-  </si>
-  <si>
-    <t>Iterating on data: functional programming patterns</t>
+    <t>Your data workbench I: R, RStudio, and Quarto</t>
+  </si>
+  <si>
+    <t>Version Control: git and GitHub</t>
+  </si>
+  <si>
+    <t>Iterate on data: functional programming patterns</t>
+  </si>
+  <si>
+    <t>Look at data: Graphs, ggplot, and the grammar of graphics</t>
+  </si>
+  <si>
+    <t>Tabulate data: Grouping, summaries</t>
+  </si>
+  <si>
+    <t>Wrangle data: Getting stuff in and out of R</t>
+  </si>
+  <si>
+    <t>Your data workbench II: How R thinks; tidy data</t>
+  </si>
+  <si>
+    <t>Reproducible data: build systems, environments, and packages</t>
   </si>
 </sst>
 </file>
@@ -229,9 +228,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -269,7 +268,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -375,7 +374,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -517,7 +516,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -527,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FE4373-BD3B-FD48-B504-CA3F219CBEF5}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -590,7 +589,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -606,7 +605,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -622,7 +621,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -638,7 +637,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -654,7 +653,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -670,7 +669,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -703,7 +702,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -737,7 +736,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -754,7 +753,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -770,7 +769,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -787,7 +786,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H14" s="3"/>
     </row>
@@ -796,7 +795,7 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2">
         <v>45622</v>
@@ -804,7 +803,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H15" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A81E58CA-6CBA-334C-B064-29B761A2A8BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B745D083-1EE6-C849-9FC3-154228BA7079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11720" yWindow="11280" windowWidth="26840" windowHeight="15940" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
+    <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>group</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>Reproducible data: build systems, environments, and packages</t>
+  </si>
+  <si>
+    <t>/content/01-content</t>
+  </si>
+  <si>
+    <t>/example/01-example</t>
+  </si>
+  <si>
+    <t>/assignment/01-assignment</t>
   </si>
 </sst>
 </file>
@@ -228,9 +237,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -268,7 +277,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -374,7 +383,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -516,7 +525,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -526,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FE4373-BD3B-FD48-B504-CA3F219CBEF5}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,6 +600,15 @@
       <c r="F2" t="s">
         <v>28</v>
       </c>
+      <c r="H2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B745D083-1EE6-C849-9FC3-154228BA7079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B349CDC-5AAE-F948-865E-BD8C2701A6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -120,9 +120,6 @@
     <t>No class (Thanksgiving)</t>
   </si>
   <si>
-    <t>Doing data analysis properly</t>
-  </si>
-  <si>
     <t>Your computer: The file system; the terminal; the Unix way of thinking</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>/assignment/01-assignment</t>
+  </si>
+  <si>
+    <t>Big Picture: Doing your work properly</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,16 +598,16 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="H2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" t="s">
         <v>40</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -623,7 +623,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -655,7 +655,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -671,7 +671,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -687,7 +687,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -704,7 +704,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -737,7 +737,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -754,7 +754,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -771,7 +771,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -787,7 +787,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -804,7 +804,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B349CDC-5AAE-F948-865E-BD8C2701A6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786C36F3-B450-A64C-9873-23545B107222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{786C36F3-B450-A64C-9873-23545B107222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2D8E33-E9A6-F846-AFD5-C4043BEE2420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>Your data workbench II: How R thinks; tidy data</t>
   </si>
   <si>
-    <t>Reproducible data: build systems, environments, and packages</t>
-  </si>
-  <si>
     <t>/content/01-content</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>Big Picture: Doing your work properly</t>
+  </si>
+  <si>
+    <t>Reproducible results: build systems, environments, and packages</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,16 +598,16 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -804,7 +804,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H14" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2D8E33-E9A6-F846-AFD5-C4043BEE2420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7717243A-455B-9640-AF36-FAEC89AC49FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>group</t>
   </si>
@@ -120,15 +120,6 @@
     <t>No class (Thanksgiving)</t>
   </si>
   <si>
-    <t>Your computer: The file system; the terminal; the Unix way of thinking</t>
-  </si>
-  <si>
-    <t>The shell: Finding, listing, and inspecting things</t>
-  </si>
-  <si>
-    <t>Editing text: Text editors; slicing and dicing; regular expressions</t>
-  </si>
-  <si>
     <t>Your data workbench I: R, RStudio, and Quarto</t>
   </si>
   <si>
@@ -163,6 +154,21 @@
   </si>
   <si>
     <t>Reproducible results: build systems, environments, and packages</t>
+  </si>
+  <si>
+    <t>The file system; the shell; the terminal</t>
+  </si>
+  <si>
+    <t>Editing text: Text editors; regular expressions</t>
+  </si>
+  <si>
+    <t>/content/02-content</t>
+  </si>
+  <si>
+    <t>/example/02-example</t>
+  </si>
+  <si>
+    <t>/assignment/02-assignment</t>
   </si>
 </sst>
 </file>
@@ -536,7 +542,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -598,16 +604,16 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -623,7 +629,16 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -639,7 +654,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -655,7 +670,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -671,7 +686,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -687,7 +702,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -704,7 +719,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -720,7 +735,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -737,7 +752,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3"/>
     </row>
@@ -754,7 +769,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H11" s="3"/>
     </row>
@@ -771,7 +786,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -787,7 +802,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -803,9 +818,6 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7717243A-455B-9640-AF36-FAEC89AC49FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCAD23E-97BA-E041-9840-252C86F6D5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>group</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>/assignment/02-assignment</t>
+  </si>
+  <si>
+    <t>/content/03-content</t>
+  </si>
+  <si>
+    <t>/example/03-example</t>
+  </si>
+  <si>
+    <t>/assignment/03-assignment</t>
   </si>
 </sst>
 </file>
@@ -542,7 +551,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -656,6 +665,15 @@
       <c r="F4" t="s">
         <v>41</v>
       </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDCAD23E-97BA-E041-9840-252C86F6D5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4B516-CEE0-FA4A-9954-91F464458A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
   <si>
     <t>group</t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>/assignment/03-assignment</t>
+  </si>
+  <si>
+    <t>/content/04-content</t>
+  </si>
+  <si>
+    <t>/example/04-example</t>
+  </si>
+  <si>
+    <t>/assignment/04-assignment</t>
   </si>
 </sst>
 </file>
@@ -551,7 +560,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,6 +699,15 @@
       <c r="F5" t="s">
         <v>28</v>
       </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D4B516-CEE0-FA4A-9954-91F464458A47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6568BF-67F8-074A-A0AF-7830ED7ED8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>group</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>/assignment/04-assignment</t>
+  </si>
+  <si>
+    <t>/example/05-example</t>
+  </si>
+  <si>
+    <t>/content/05-content</t>
+  </si>
+  <si>
+    <t>/assignment/05-assignment</t>
   </si>
 </sst>
 </file>
@@ -560,7 +569,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -724,6 +733,15 @@
       <c r="F6" t="s">
         <v>34</v>
       </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6568BF-67F8-074A-A0AF-7830ED7ED8BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116DF034-2A52-FF48-B61A-6C2EBE580229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>group</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>/assignment/05-assignment</t>
+  </si>
+  <si>
+    <t>/content/06-content</t>
+  </si>
+  <si>
+    <t>/example/06-example</t>
+  </si>
+  <si>
+    <t>/assignment/06-assignment</t>
   </si>
 </sst>
 </file>
@@ -569,7 +578,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -758,7 +767,15 @@
       <c r="F7" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116DF034-2A52-FF48-B61A-6C2EBE580229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918C038C-0211-6A4A-A63A-197878AD80F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>group</t>
   </si>
@@ -57,154 +57,163 @@
     <t>content</t>
   </si>
   <si>
+    <t>assignment</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>day2</t>
+  </si>
+  <si>
+    <t>Weekly Topics</t>
+  </si>
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>No class (Fall break)</t>
+  </si>
+  <si>
+    <t>No class (Thanksgiving)</t>
+  </si>
+  <si>
+    <t>Your data workbench I: R, RStudio, and Quarto</t>
+  </si>
+  <si>
+    <t>Version Control: git and GitHub</t>
+  </si>
+  <si>
+    <t>Iterate on data: functional programming patterns</t>
+  </si>
+  <si>
+    <t>Look at data: Graphs, ggplot, and the grammar of graphics</t>
+  </si>
+  <si>
+    <t>Your data workbench II: How R thinks; tidy data</t>
+  </si>
+  <si>
+    <t>/content/01-content</t>
+  </si>
+  <si>
+    <t>/example/01-example</t>
+  </si>
+  <si>
+    <t>/assignment/01-assignment</t>
+  </si>
+  <si>
+    <t>Big Picture: Doing your work properly</t>
+  </si>
+  <si>
+    <t>Reproducible results: build systems, environments, and packages</t>
+  </si>
+  <si>
+    <t>The file system; the shell; the terminal</t>
+  </si>
+  <si>
+    <t>Editing text: Text editors; regular expressions</t>
+  </si>
+  <si>
+    <t>/content/02-content</t>
+  </si>
+  <si>
+    <t>/example/02-example</t>
+  </si>
+  <si>
+    <t>/assignment/02-assignment</t>
+  </si>
+  <si>
+    <t>/content/03-content</t>
+  </si>
+  <si>
+    <t>/example/03-example</t>
+  </si>
+  <si>
+    <t>/assignment/03-assignment</t>
+  </si>
+  <si>
+    <t>/content/04-content</t>
+  </si>
+  <si>
+    <t>/example/04-example</t>
+  </si>
+  <si>
+    <t>/assignment/04-assignment</t>
+  </si>
+  <si>
+    <t>/example/05-example</t>
+  </si>
+  <si>
+    <t>/content/05-content</t>
+  </si>
+  <si>
+    <t>/assignment/05-assignment</t>
+  </si>
+  <si>
+    <t>/content/06-content</t>
+  </si>
+  <si>
+    <t>/example/06-example</t>
+  </si>
+  <si>
+    <t>/assignment/06-assignment</t>
+  </si>
+  <si>
+    <t>Ingest data: Getting stuff in and out of R</t>
+  </si>
+  <si>
+    <t>Wrangle and tabulate data: Grouping, summaries</t>
+  </si>
+  <si>
+    <t>/content/07-content</t>
+  </si>
+  <si>
+    <t>/example/07-example</t>
+  </si>
+  <si>
+    <t>/assignment/07-assignment</t>
+  </si>
+  <si>
     <t>example</t>
-  </si>
-  <si>
-    <t>assignment</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>day2</t>
-  </si>
-  <si>
-    <t>Weekly Topics</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
-  </si>
-  <si>
-    <t>No class (Fall break)</t>
-  </si>
-  <si>
-    <t>No class (Thanksgiving)</t>
-  </si>
-  <si>
-    <t>Your data workbench I: R, RStudio, and Quarto</t>
-  </si>
-  <si>
-    <t>Version Control: git and GitHub</t>
-  </si>
-  <si>
-    <t>Iterate on data: functional programming patterns</t>
-  </si>
-  <si>
-    <t>Look at data: Graphs, ggplot, and the grammar of graphics</t>
-  </si>
-  <si>
-    <t>Tabulate data: Grouping, summaries</t>
-  </si>
-  <si>
-    <t>Wrangle data: Getting stuff in and out of R</t>
-  </si>
-  <si>
-    <t>Your data workbench II: How R thinks; tidy data</t>
-  </si>
-  <si>
-    <t>/content/01-content</t>
-  </si>
-  <si>
-    <t>/example/01-example</t>
-  </si>
-  <si>
-    <t>/assignment/01-assignment</t>
-  </si>
-  <si>
-    <t>Big Picture: Doing your work properly</t>
-  </si>
-  <si>
-    <t>Reproducible results: build systems, environments, and packages</t>
-  </si>
-  <si>
-    <t>The file system; the shell; the terminal</t>
-  </si>
-  <si>
-    <t>Editing text: Text editors; regular expressions</t>
-  </si>
-  <si>
-    <t>/content/02-content</t>
-  </si>
-  <si>
-    <t>/example/02-example</t>
-  </si>
-  <si>
-    <t>/assignment/02-assignment</t>
-  </si>
-  <si>
-    <t>/content/03-content</t>
-  </si>
-  <si>
-    <t>/example/03-example</t>
-  </si>
-  <si>
-    <t>/assignment/03-assignment</t>
-  </si>
-  <si>
-    <t>/content/04-content</t>
-  </si>
-  <si>
-    <t>/example/04-example</t>
-  </si>
-  <si>
-    <t>/assignment/04-assignment</t>
-  </si>
-  <si>
-    <t>/example/05-example</t>
-  </si>
-  <si>
-    <t>/content/05-content</t>
-  </si>
-  <si>
-    <t>/assignment/05-assignment</t>
-  </si>
-  <si>
-    <t>/content/06-content</t>
-  </si>
-  <si>
-    <t>/example/06-example</t>
-  </si>
-  <si>
-    <t>/assignment/06-assignment</t>
   </si>
 </sst>
 </file>
@@ -578,7 +587,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -603,7 +612,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -618,21 +627,21 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>45531</v>
@@ -640,24 +649,24 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
         <v>45538</v>
@@ -665,24 +674,24 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2">
         <v>45545</v>
@@ -690,24 +699,24 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>45552</v>
@@ -715,24 +724,24 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>45559</v>
@@ -740,24 +749,24 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>45566</v>
@@ -765,24 +774,24 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="2">
         <v>45573</v>
@@ -790,15 +799,24 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="2">
         <v>45580</v>
@@ -806,16 +824,16 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="2">
         <v>45587</v>
@@ -823,16 +841,16 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2">
         <v>45594</v>
@@ -840,16 +858,16 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2">
         <v>45601</v>
@@ -857,15 +875,15 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" s="2">
         <v>45608</v>
@@ -873,16 +891,16 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2">
         <v>45615</v>
@@ -893,10 +911,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2">
         <v>45622</v>
@@ -904,7 +922,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H15" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{918C038C-0211-6A4A-A63A-197878AD80F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94FE70C-C91F-FB46-8202-B1ECD7E62FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
   <si>
     <t>group</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Ingest data: Getting stuff in and out of R</t>
   </si>
   <si>
-    <t>Wrangle and tabulate data: Grouping, summaries</t>
-  </si>
-  <si>
     <t>/content/07-content</t>
   </si>
   <si>
@@ -214,6 +211,18 @@
   </si>
   <si>
     <t>example</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>/content/08-content</t>
+  </si>
+  <si>
+    <t>/example/08-example</t>
+  </si>
+  <si>
+    <t>/assignment/08-assignment</t>
   </si>
 </sst>
 </file>
@@ -587,7 +596,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -627,7 +636,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -802,13 +811,13 @@
         <v>54</v>
       </c>
       <c r="H8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" t="s">
         <v>56</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -841,9 +850,17 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="3"/>
+        <v>59</v>
+      </c>
+      <c r="H10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -858,9 +875,8 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="3"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -875,7 +891,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C94FE70C-C91F-FB46-8202-B1ECD7E62FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE646BCC-2B55-B74A-8967-7BA8029B9B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
   <si>
     <t>group</t>
   </si>
@@ -223,6 +223,15 @@
   </si>
   <si>
     <t>/assignment/08-assignment</t>
+  </si>
+  <si>
+    <t>/content/09-content</t>
+  </si>
+  <si>
+    <t>/example/09-example</t>
+  </si>
+  <si>
+    <t>/assignment/09-assignment</t>
   </si>
 </sst>
 </file>
@@ -596,7 +605,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -877,6 +886,15 @@
       <c r="F11" t="s">
         <v>29</v>
       </c>
+      <c r="H11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11103"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE646BCC-2B55-B74A-8967-7BA8029B9B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C968BA-1503-E04F-A9F9-93D21730CD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>group</t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>/assignment/09-assignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supercharged iteration: Parallel computing </t>
+  </si>
+  <si>
+    <t>/content/10-content</t>
+  </si>
+  <si>
+    <t>/example/10-example</t>
+  </si>
+  <si>
+    <t>/assignment/10-assignment</t>
   </si>
 </sst>
 </file>
@@ -605,7 +617,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -909,7 +921,16 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -925,7 +946,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H13" s="3"/>
     </row>
@@ -941,6 +962,9 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
+      <c r="F14" t="s">
+        <v>36</v>
+      </c>
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C968BA-1503-E04F-A9F9-93D21730CD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB008BE-EE30-1545-A0D7-1D2BF5B2DAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>group</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>/assignment/10-assignment</t>
+  </si>
+  <si>
+    <t>/content/11-content</t>
   </si>
 </sst>
 </file>
@@ -617,7 +620,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,7 +951,9 @@
       <c r="F13" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB008BE-EE30-1545-A0D7-1D2BF5B2DAAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216F8FCE-FE1A-F947-88A3-9C47756ABD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>group</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>/content/11-content</t>
+  </si>
+  <si>
+    <t>/content/12-content</t>
+  </si>
+  <si>
+    <t>/example/11-example</t>
   </si>
 </sst>
 </file>
@@ -620,7 +626,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -954,6 +960,9 @@
       <c r="H13" t="s">
         <v>70</v>
       </c>
+      <c r="I13" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -970,7 +979,9 @@
       <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216F8FCE-FE1A-F947-88A3-9C47756ABD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCF41B2-200C-CC4A-8144-9CAF30A19FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>group</t>
   </si>
@@ -114,9 +114,6 @@
     <t>No class (Fall break)</t>
   </si>
   <si>
-    <t>No class (Thanksgiving)</t>
-  </si>
-  <si>
     <t>Your data workbench I: R, RStudio, and Quarto</t>
   </si>
   <si>
@@ -132,15 +129,6 @@
     <t>Your data workbench II: How R thinks; tidy data</t>
   </si>
   <si>
-    <t>/content/01-content</t>
-  </si>
-  <si>
-    <t>/example/01-example</t>
-  </si>
-  <si>
-    <t>/assignment/01-assignment</t>
-  </si>
-  <si>
     <t>Big Picture: Doing your work properly</t>
   </si>
   <si>
@@ -153,106 +141,28 @@
     <t>Editing text: Text editors; regular expressions</t>
   </si>
   <si>
-    <t>/content/02-content</t>
-  </si>
-  <si>
-    <t>/example/02-example</t>
-  </si>
-  <si>
-    <t>/assignment/02-assignment</t>
-  </si>
-  <si>
-    <t>/content/03-content</t>
-  </si>
-  <si>
-    <t>/example/03-example</t>
-  </si>
-  <si>
-    <t>/assignment/03-assignment</t>
-  </si>
-  <si>
-    <t>/content/04-content</t>
-  </si>
-  <si>
-    <t>/example/04-example</t>
-  </si>
-  <si>
-    <t>/assignment/04-assignment</t>
-  </si>
-  <si>
-    <t>/example/05-example</t>
-  </si>
-  <si>
-    <t>/content/05-content</t>
-  </si>
-  <si>
-    <t>/assignment/05-assignment</t>
-  </si>
-  <si>
-    <t>/content/06-content</t>
-  </si>
-  <si>
-    <t>/example/06-example</t>
-  </si>
-  <si>
-    <t>/assignment/06-assignment</t>
-  </si>
-  <si>
     <t>Ingest data: Getting stuff in and out of R</t>
   </si>
   <si>
-    <t>/content/07-content</t>
-  </si>
-  <si>
-    <t>/example/07-example</t>
-  </si>
-  <si>
-    <t>/assignment/07-assignment</t>
-  </si>
-  <si>
     <t>example</t>
   </si>
   <si>
-    <t>Databases</t>
-  </si>
-  <si>
-    <t>/content/08-content</t>
-  </si>
-  <si>
-    <t>/example/08-example</t>
-  </si>
-  <si>
-    <t>/assignment/08-assignment</t>
-  </si>
-  <si>
-    <t>/content/09-content</t>
-  </si>
-  <si>
-    <t>/example/09-example</t>
-  </si>
-  <si>
-    <t>/assignment/09-assignment</t>
-  </si>
-  <si>
     <t xml:space="preserve">Supercharged iteration: Parallel computing </t>
   </si>
   <si>
-    <t>/content/10-content</t>
-  </si>
-  <si>
-    <t>/example/10-example</t>
-  </si>
-  <si>
-    <t>/assignment/10-assignment</t>
-  </si>
-  <si>
-    <t>/content/11-content</t>
-  </si>
-  <si>
-    <t>/content/12-content</t>
-  </si>
-  <si>
-    <t>/example/11-example</t>
+    <t>Databases and APIs</t>
+  </si>
+  <si>
+    <t>Leveraging Minions: What AI tools can and can't do for you</t>
+  </si>
+  <si>
+    <t>/content/01-content-doing-your-work</t>
+  </si>
+  <si>
+    <t>/example/01-example-oecd</t>
+  </si>
+  <si>
+    <t>/assignment/01-assignment-install-r-github</t>
   </si>
 </sst>
 </file>
@@ -626,7 +536,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -635,9 +545,9 @@
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="5" max="5" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="62" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
@@ -666,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -683,21 +593,21 @@
         <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>45531</v>
+        <v>45894</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -708,22 +618,14 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <v>45538</v>
+        <v>45901</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>41</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -733,22 +635,14 @@
         <v>13</v>
       </c>
       <c r="C4" s="2">
-        <v>45545</v>
+        <v>45908</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>44</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -758,22 +652,14 @@
         <v>14</v>
       </c>
       <c r="C5" s="2">
-        <v>45552</v>
+        <v>45915</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>47</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -783,22 +669,14 @@
         <v>15</v>
       </c>
       <c r="C6" s="2">
-        <v>45559</v>
+        <v>45922</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -808,22 +686,14 @@
         <v>16</v>
       </c>
       <c r="C7" s="2">
-        <v>45566</v>
+        <v>45929</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>53</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -833,22 +703,14 @@
         <v>17</v>
       </c>
       <c r="C8" s="2">
-        <v>45573</v>
+        <v>45936</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>57</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="J8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -858,7 +720,7 @@
         <v>18</v>
       </c>
       <c r="C9" s="2">
-        <v>45580</v>
+        <v>45943</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -875,22 +737,14 @@
         <v>19</v>
       </c>
       <c r="C10" s="2">
-        <v>45587</v>
+        <v>45950</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I10" t="s">
-        <v>61</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -900,22 +754,14 @@
         <v>20</v>
       </c>
       <c r="C11" s="2">
-        <v>45594</v>
+        <v>45957</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>65</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -925,22 +771,14 @@
         <v>21</v>
       </c>
       <c r="C12" s="2">
-        <v>45601</v>
+        <v>45964</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>69</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -950,18 +788,12 @@
         <v>22</v>
       </c>
       <c r="C13" s="2">
-        <v>45608</v>
+        <v>45971</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>70</v>
-      </c>
-      <c r="I13" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -972,15 +804,12 @@
         <v>23</v>
       </c>
       <c r="C14" s="2">
-        <v>45615</v>
+        <v>45978</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -991,12 +820,12 @@
         <v>24</v>
       </c>
       <c r="C15" s="2">
-        <v>45622</v>
+        <v>45985</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="H15" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCF41B2-200C-CC4A-8144-9CAF30A19FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2517DD13-1432-4C4C-BC2F-047C20202A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -114,42 +114,18 @@
     <t>No class (Fall break)</t>
   </si>
   <si>
-    <t>Your data workbench I: R, RStudio, and Quarto</t>
-  </si>
-  <si>
     <t>Version Control: git and GitHub</t>
   </si>
   <si>
-    <t>Iterate on data: functional programming patterns</t>
-  </si>
-  <si>
-    <t>Look at data: Graphs, ggplot, and the grammar of graphics</t>
-  </si>
-  <si>
-    <t>Your data workbench II: How R thinks; tidy data</t>
-  </si>
-  <si>
     <t>Big Picture: Doing your work properly</t>
   </si>
   <si>
-    <t>Reproducible results: build systems, environments, and packages</t>
-  </si>
-  <si>
     <t>The file system; the shell; the terminal</t>
   </si>
   <si>
-    <t>Editing text: Text editors; regular expressions</t>
-  </si>
-  <si>
-    <t>Ingest data: Getting stuff in and out of R</t>
-  </si>
-  <si>
     <t>example</t>
   </si>
   <si>
-    <t xml:space="preserve">Supercharged iteration: Parallel computing </t>
-  </si>
-  <si>
     <t>Databases and APIs</t>
   </si>
   <si>
@@ -162,7 +138,31 @@
     <t>/example/01-example-oecd</t>
   </si>
   <si>
-    <t>/assignment/01-assignment-install-r-github</t>
+    <t>/assignment/01-assignment-quarto-notes</t>
+  </si>
+  <si>
+    <t>No class (Labor Day)</t>
+  </si>
+  <si>
+    <t>Using R to look at data</t>
+  </si>
+  <si>
+    <t>Working with models</t>
+  </si>
+  <si>
+    <t>Functional programming patterns</t>
+  </si>
+  <si>
+    <t>Ingesting and cleaning data</t>
+  </si>
+  <si>
+    <t>Tidy data and dplyr</t>
+  </si>
+  <si>
+    <t>Build systems, environments, and packages</t>
+  </si>
+  <si>
+    <t>Better tables, better graphs</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,7 +576,7 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -598,16 +598,16 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -623,7 +623,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J3" s="3"/>
     </row>
@@ -640,7 +640,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="J4" s="3"/>
     </row>
@@ -657,7 +657,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -674,7 +674,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J6" s="3"/>
     </row>
@@ -691,7 +691,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -708,7 +708,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="J8" s="3"/>
     </row>
@@ -742,7 +742,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="3"/>
     </row>
@@ -759,7 +759,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -776,7 +776,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J12" s="3"/>
     </row>
@@ -793,7 +793,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -809,7 +809,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -825,7 +825,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H15" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2517DD13-1432-4C4C-BC2F-047C20202A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA05A269-F92B-644A-AC17-D4D519565C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -135,9 +135,6 @@
     <t>/content/01-content-doing-your-work</t>
   </si>
   <si>
-    <t>/example/01-example-oecd</t>
-  </si>
-  <si>
     <t>/assignment/01-assignment-quarto-notes</t>
   </si>
   <si>
@@ -163,6 +160,9 @@
   </si>
   <si>
     <t>Better tables, better graphs</t>
+  </si>
+  <si>
+    <t>/example/00-example-oecd</t>
   </si>
 </sst>
 </file>
@@ -536,7 +536,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,10 +604,10 @@
         <v>32</v>
       </c>
       <c r="I2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -623,7 +623,7 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="3"/>
     </row>
@@ -657,7 +657,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -674,7 +674,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="3"/>
     </row>
@@ -691,7 +691,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -708,7 +708,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J8" s="3"/>
     </row>
@@ -759,7 +759,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -793,7 +793,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -809,7 +809,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA05A269-F92B-644A-AC17-D4D519565C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F43A4F-69A4-3640-8020-9AC5F5EE4DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3520" windowWidth="33540" windowHeight="16460" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
+    <workbookView xWindow="9640" yWindow="1600" windowWidth="23900" windowHeight="18380" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>group</t>
   </si>
@@ -162,7 +162,13 @@
     <t>Better tables, better graphs</t>
   </si>
   <si>
-    <t>/example/00-example-oecd</t>
+    <t>/content/02-content-labor-day</t>
+  </si>
+  <si>
+    <t>/example/01-example-oecd</t>
+  </si>
+  <si>
+    <t>/assignment/02-assignment-find-some-data</t>
   </si>
 </sst>
 </file>
@@ -535,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FE4373-BD3B-FD48-B504-CA3F219CBEF5}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -604,7 +610,7 @@
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>33</v>
@@ -625,7 +631,12 @@
       <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F43A4F-69A4-3640-8020-9AC5F5EE4DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1F05C9-8D9D-F840-B616-17E5C63ED0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9640" yWindow="1600" windowWidth="23900" windowHeight="18380" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1F05C9-8D9D-F840-B616-17E5C63ED0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C0464F-04C4-204D-A917-604DAC2C1E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9640" yWindow="1600" windowWidth="23900" windowHeight="18380" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t>group</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>/assignment/02-assignment-find-some-data</t>
+  </si>
+  <si>
+    <t>/content/03-content-shell</t>
+  </si>
+  <si>
+    <t>/example/03-example-shell</t>
+  </si>
+  <si>
+    <t>/assignment/03-assignment-shell</t>
   </si>
 </sst>
 </file>
@@ -542,7 +551,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -653,7 +662,15 @@
       <c r="F4" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C0464F-04C4-204D-A917-604DAC2C1E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B5CE00-519C-A64A-A481-222580802063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9640" yWindow="1600" windowWidth="23900" windowHeight="18380" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>group</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>/assignment/03-assignment-shell</t>
+  </si>
+  <si>
+    <t>/content/04-content-r</t>
   </si>
 </sst>
 </file>
@@ -551,7 +554,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,6 +690,9 @@
       <c r="F5" t="s">
         <v>35</v>
       </c>
+      <c r="H5" t="s">
+        <v>48</v>
+      </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B5CE00-519C-A64A-A481-222580802063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4D73A2-B628-F24D-8153-CA96023D0CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9640" yWindow="1600" windowWidth="23900" windowHeight="18380" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
   <si>
     <t>group</t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>/content/04-content-r</t>
+  </si>
+  <si>
+    <t>/content/05-content-dplyr</t>
+  </si>
+  <si>
+    <t>/example/05-example-dplyr</t>
+  </si>
+  <si>
+    <t>/assignment/05-assignment-dplyr</t>
+  </si>
+  <si>
+    <t>/example/04-example-ggplot</t>
   </si>
 </sst>
 </file>
@@ -554,7 +566,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -693,6 +705,9 @@
       <c r="H5" t="s">
         <v>48</v>
       </c>
+      <c r="I5" t="s">
+        <v>52</v>
+      </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -710,7 +725,15 @@
       <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="H6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD4D73A2-B628-F24D-8153-CA96023D0CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E5696F-A97A-BB4E-A365-03A803529B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9640" yWindow="1600" windowWidth="23900" windowHeight="18380" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
+    <workbookView xWindow="11160" yWindow="2800" windowWidth="23900" windowHeight="18380" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
   <si>
     <t>group</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Build systems, environments, and packages</t>
   </si>
   <si>
-    <t>Better tables, better graphs</t>
-  </si>
-  <si>
     <t>/content/02-content-labor-day</t>
   </si>
   <si>
@@ -193,6 +190,12 @@
   </si>
   <si>
     <t>/example/04-example-ggplot</t>
+  </si>
+  <si>
+    <t>More on dplyr, tidyr, and related packages</t>
+  </si>
+  <si>
+    <t>/content/06-content-dplyr-and-more</t>
   </si>
 </sst>
 </file>
@@ -566,7 +569,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,7 +637,7 @@
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>33</v>
@@ -656,10 +659,10 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -678,13 +681,13 @@
         <v>28</v>
       </c>
       <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
         <v>45</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -703,10 +706,10 @@
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -726,13 +729,13 @@
         <v>39</v>
       </c>
       <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
         <v>49</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -748,7 +751,10 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>52</v>
+      </c>
+      <c r="H7" t="s">
+        <v>53</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -765,7 +771,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J8" s="3"/>
     </row>

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E5696F-A97A-BB4E-A365-03A803529B10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39016FC8-D1BC-D74B-B3BD-BB7538FD9177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="2800" windowWidth="23900" windowHeight="18380" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
+    <workbookView xWindow="10660" yWindow="2800" windowWidth="23900" windowHeight="18380" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>group</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>/content/06-content-dplyr-and-more</t>
+  </si>
+  <si>
+    <t>/content/07-content-ingesting-data</t>
+  </si>
+  <si>
+    <t>assignment/07-assignment-fars</t>
   </si>
 </sst>
 </file>
@@ -568,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FE4373-BD3B-FD48-B504-CA3F219CBEF5}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,7 +779,12 @@
       <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39016FC8-D1BC-D74B-B3BD-BB7538FD9177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E66A73C-ABBF-DD43-8E93-C08E67CEF9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10660" yWindow="2800" windowWidth="23900" windowHeight="18380" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>group</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>assignment/07-assignment-fars</t>
+  </si>
+  <si>
+    <t>/example/05-example-dplyr-and-more</t>
   </si>
 </sst>
 </file>
@@ -575,7 +578,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,6 +765,9 @@
       <c r="H7" t="s">
         <v>53</v>
       </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E66A73C-ABBF-DD43-8E93-C08E67CEF9AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDEFA5C-35C4-DE44-84C3-24C52E881B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10660" yWindow="2800" windowWidth="23900" windowHeight="18380" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -201,10 +201,10 @@
     <t>/content/07-content-ingesting-data</t>
   </si>
   <si>
-    <t>assignment/07-assignment-fars</t>
-  </si>
-  <si>
-    <t>/example/05-example-dplyr-and-more</t>
+    <t>/example/06-example-dplyr-and-more</t>
+  </si>
+  <si>
+    <t>/assignment/07-assignment-fars</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -766,7 +766,7 @@
         <v>53</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -789,7 +789,7 @@
         <v>54</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDEFA5C-35C4-DE44-84C3-24C52E881B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12430C6-E292-C143-9089-7EBAAFC6CE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10660" yWindow="2800" windowWidth="23900" windowHeight="18380" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>group</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Using R to look at data</t>
   </si>
   <si>
-    <t>Working with models</t>
-  </si>
-  <si>
     <t>Functional programming patterns</t>
   </si>
   <si>
@@ -205,6 +202,21 @@
   </si>
   <si>
     <t>/assignment/07-assignment-fars</t>
+  </si>
+  <si>
+    <t>/content/08-content-git</t>
+  </si>
+  <si>
+    <t>/example/08-example-git</t>
+  </si>
+  <si>
+    <t>Iterating on Data and Models</t>
+  </si>
+  <si>
+    <t>/content/09-content-iteration</t>
+  </si>
+  <si>
+    <t>/example/09-example-iteration</t>
   </si>
 </sst>
 </file>
@@ -578,7 +590,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -646,7 +658,7 @@
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>33</v>
@@ -668,10 +680,10 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -690,13 +702,13 @@
         <v>28</v>
       </c>
       <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
         <v>44</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -715,10 +727,10 @@
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -735,16 +747,16 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>48</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -760,13 +772,13 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" t="s">
         <v>52</v>
       </c>
-      <c r="H7" t="s">
-        <v>53</v>
-      </c>
       <c r="I7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -783,13 +795,13 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -807,7 +819,6 @@
       <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -824,6 +835,12 @@
       <c r="F10" t="s">
         <v>26</v>
       </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
@@ -839,7 +856,13 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>58</v>
+      </c>
+      <c r="H11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" t="s">
+        <v>60</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -873,7 +896,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -889,7 +912,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12430C6-E292-C143-9089-7EBAAFC6CE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AEB154-9F3F-DA41-8207-75CBD2CE98D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10660" yWindow="2800" windowWidth="23900" windowHeight="18380" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
   <si>
     <t>group</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Using R to look at data</t>
   </si>
   <si>
-    <t>Functional programming patterns</t>
-  </si>
-  <si>
     <t>Ingesting and cleaning data</t>
   </si>
   <si>
@@ -217,6 +214,18 @@
   </si>
   <si>
     <t>/example/09-example-iteration</t>
+  </si>
+  <si>
+    <t>Parallel Computing</t>
+  </si>
+  <si>
+    <t>/content/10-content-databases</t>
+  </si>
+  <si>
+    <t>/example/10-example-databases</t>
+  </si>
+  <si>
+    <t>/assignment/10-assignment-databases</t>
   </si>
 </sst>
 </file>
@@ -589,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FE4373-BD3B-FD48-B504-CA3F219CBEF5}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,7 +667,7 @@
         <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>33</v>
@@ -680,10 +689,10 @@
         <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -702,13 +711,13 @@
         <v>28</v>
       </c>
       <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -727,10 +736,10 @@
         <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -747,16 +756,16 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
         <v>47</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -772,13 +781,13 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
         <v>51</v>
       </c>
-      <c r="H7" t="s">
-        <v>52</v>
-      </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -795,13 +804,13 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -836,10 +845,10 @@
         <v>26</v>
       </c>
       <c r="H10" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" t="s">
         <v>56</v>
-      </c>
-      <c r="I10" t="s">
-        <v>57</v>
       </c>
       <c r="J10" s="3"/>
     </row>
@@ -856,13 +865,13 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" t="s">
         <v>58</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>59</v>
-      </c>
-      <c r="I11" t="s">
-        <v>60</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -881,7 +890,15 @@
       <c r="F12" t="s">
         <v>30</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -896,7 +913,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -912,7 +929,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AEB154-9F3F-DA41-8207-75CBD2CE98D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A13A31-3217-454E-960D-147203C9C113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10660" yWindow="2800" windowWidth="23900" windowHeight="18380" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
+    <workbookView xWindow="2480" yWindow="2120" windowWidth="23900" windowHeight="18380" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>group</t>
   </si>
@@ -226,6 +226,15 @@
   </si>
   <si>
     <t>/assignment/10-assignment-databases</t>
+  </si>
+  <si>
+    <t>/content/11-content-parallel</t>
+  </si>
+  <si>
+    <t>/content/12-content-build</t>
+  </si>
+  <si>
+    <t>/assignment/12-assignment-enchilada</t>
   </si>
 </sst>
 </file>
@@ -599,7 +608,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -915,6 +924,9 @@
       <c r="F13" t="s">
         <v>60</v>
       </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -930,6 +942,12 @@
       <c r="E14" s="2"/>
       <c r="F14" t="s">
         <v>38</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/schedule.xlsx
+++ b/data/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kjhealy/Documents/courses/mptc/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A13A31-3217-454E-960D-147203C9C113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C041841-6795-2645-8EB0-DD8725978DD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="2120" windowWidth="23900" windowHeight="18380" xr2:uid="{FF444104-2C96-9340-A7A7-D0D5BB267F7C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>group</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Databases and APIs</t>
   </si>
   <si>
-    <t>Leveraging Minions: What AI tools can and can't do for you</t>
-  </si>
-  <si>
     <t>/content/01-content-doing-your-work</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Tidy data and dplyr</t>
   </si>
   <si>
-    <t>Build systems, environments, and packages</t>
-  </si>
-  <si>
     <t>/content/02-content-labor-day</t>
   </si>
   <si>
@@ -235,6 +229,15 @@
   </si>
   <si>
     <t>/assignment/12-assignment-enchilada</t>
+  </si>
+  <si>
+    <t>/content/13-content-packages</t>
+  </si>
+  <si>
+    <t>Packages, and LLMs</t>
+  </si>
+  <si>
+    <t>Helpers, build systems, and environments</t>
   </si>
 </sst>
 </file>
@@ -607,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FE4373-BD3B-FD48-B504-CA3F219CBEF5}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,13 +676,13 @@
         <v>27</v>
       </c>
       <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -695,13 +698,13 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -720,13 +723,13 @@
         <v>28</v>
       </c>
       <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -742,13 +745,13 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J5" s="3"/>
     </row>
@@ -765,16 +768,16 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -790,13 +793,13 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" t="s">
         <v>51</v>
-      </c>
-      <c r="I7" t="s">
-        <v>53</v>
       </c>
       <c r="J7" s="3"/>
     </row>
@@ -813,13 +816,13 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
@@ -854,10 +857,10 @@
         <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J10" s="3"/>
     </row>
@@ -874,13 +877,13 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
         <v>57</v>
-      </c>
-      <c r="H11" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" t="s">
-        <v>59</v>
       </c>
       <c r="J11" s="3"/>
     </row>
@@ -900,13 +903,13 @@
         <v>30</v>
       </c>
       <c r="H12" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -922,10 +925,10 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
@@ -941,13 +944,13 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -963,9 +966,11 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" s="3"/>
+        <v>66</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="C16" s="2"/>
